--- a/experiments/dbscan-ajk/simcse/0.3/prediction.xlsx
+++ b/experiments/dbscan-ajk/simcse/0.3/prediction.xlsx
@@ -468,47 +468,47 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,27 +518,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,27 +548,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,57 +608,57 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,17 +668,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,17 +908,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,17 +1138,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,27 +1208,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,17 +1328,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,107 +1348,107 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,47 +1468,47 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,17 +1548,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,67 +1778,67 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1858,57 +1858,57 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1928,17 +1928,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1978,17 +1978,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,47 +2048,47 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,17 +2138,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2178,17 +2178,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2228,17 +2228,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,47 +2278,47 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2448,27 +2448,27 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -2718,17 +2718,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2748,227 +2748,227 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2978,167 +2978,167 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -3188,17 +3188,17 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -3208,17 +3208,17 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -3228,67 +3228,67 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -3298,37 +3298,37 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -3338,37 +3338,37 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -3458,17 +3458,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -3478,17 +3478,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -3608,17 +3608,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -3718,67 +3718,67 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -3788,67 +3788,67 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -3938,97 +3938,97 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -4038,37 +4038,37 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -4088,2181 +4088,2181 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>49</v>
+        <v>92</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>49</v>
+        <v>97</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>51</v>
+        <v>93</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>51</v>
+        <v>94</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>57</v>
+        <v>95</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>62</v>
+        <v>99</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>64</v>
+        <v>101</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>64</v>
+        <v>102</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>64</v>
+        <v>103</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>76</v>
+        <v>110</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>77</v>
+        <v>111</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>80</v>
+        <v>113</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>90</v>
+        <v>117</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>99</v>
+        <v>121</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>104</v>
+        <v>41</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>109</v>
+        <v>17</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>110</v>
+        <v>17</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
